--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B2EC80-B95A-400E-A4A6-2496BA4A22C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C98B6D-87BC-438C-8B41-461808ADBE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,25 @@
   </si>
   <si>
     <t>20190524  google ai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficient Estimation of Word Representations in Vector Space</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomas Mikolov</t>
+  </si>
+  <si>
+    <t>1. propose two novel model architectures for computing continuous vector representation which are CBOW and Skip-gram   2. word vector is convient for nlp task 3.compare the compliacity with other model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. N-gram,  NNLM, LSA… 2. words have multiple degrees of similarity 3.present different results of comparition about models</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>word vector can be used in syntactic, semantic language tasks and knowledge bases,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -491,6 +510,26 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
+        <v>20130907</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C98B6D-87BC-438C-8B41-461808ADBE36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBE199F-73EC-4909-B128-A53515B2F5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16095" yWindow="6045" windowWidth="12615" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="word2vec" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +108,105 @@
   </si>
   <si>
     <t>word vector can be used in syntactic, semantic language tasks and knowledge bases,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed Representations ofWords and Phrases and their Compositionality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tomas Mikolov</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.In this paper we present several extensions that improve both the quality of the vectors and the training speed.  2. a non-obvious degree of language understanding can be obtained by using basic mathematical operations on the word vector representations</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. skip-gram model 2.hierarchical softmax  3. negative samoling 4. learning phrase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>词表示方法： 分两种，传统表示方法，基于统计的方法，分布式表示： word2vec(skip-gram, CBOW), GloVe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GloVe: Global Vectors forWord Representation</t>
+  </si>
+  <si>
+    <t>Jeffrey Pennington</t>
+  </si>
+  <si>
+    <t>1.Because of  the origin of semantic and synactic regularities remaining opaque,  they build a model with two major model families that are global matrix factorization and local context window method.  2.GloVe produces a vector space with meaningful substructure based on training on the word-word co-occyrence matrix rather than sparse matrix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Conclusion and Future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.introduction of matrix factorization method and shallow window-based method 2.Glove model： 2.1 train on co-occurrence matrix, and use window method to compute the ratio 2.2 loss function and probabilities 3. complexity and relation with other method like skip-gram</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. GloVe outperform on word analogies, word similarity, name entity recognition tasks  2.GloVe learns fron count-based methods and predicted-based model. The models arenot dramatically different at a fundamental level, but Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reading date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Improving Distributional Similarity with Lessons Learned from Word Embeddings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Omer Levy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.much of the performance gains of word embeddings are due to certain system design choices and hyperparameter optimizations,
+rather than the embedding algorithms themselves. 2. these modifications can be transferred to traditional distributional models, yielding similar gains.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. models with hyperparameters, 2. other models: skip-gram, GloVe' transferable Hyperparameters used in traditional model 3. Transferable Hyperparameters vs big data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.We reveal that these seemingly minor variations can have a large impact on the success of word representation methods.  2.This study also exposes the need for more controlled-variable experiments, and extending the concept of “variable” from the obvious task, data, and method to the often ignored preprocessing steps and hyperparameter settings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Evaluation methods for unsupervised word embeddings</t>
+  </si>
+  <si>
+    <t>Tobias Schnabel</t>
+  </si>
+  <si>
+    <t>1.present a comprehensive study of evaluation methods for unsupervised embedding techniques that obtain meaningful representations of words from text because different evaluations result in different orderings of embedding methods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. the siginificance of the paper 2.propose a new approach to evaluation that focuses on direct comparison of embeddingswith respect to individual queries rather than overall summary scores.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.There are many factors that affect word embedding 2.present a novel evaluation framework based on direct comparisons between embeddings that provides more fine-grained analysis and supports simple, crowdsourced relevance judgments.
+quality: Factors such as word frequency play a significant and previously unacknowledged role.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文介绍了Glove模型，用于word representation， 使用了统计方法（用共现矩阵训练），也使用了文本窗口的方法计算概率（类似word2vec），其性能要由于word2vec 和传统的词表示模型（词推理，词相似，识别命名实体方面）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文认为 word embedding 优于传统算法的原因在于 certain system
+design choices and hyperparameter optimizations 而不是算法上，同时介绍了各种算法（wordembedding，glove），超参数，实验数据，实验过程等等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文介绍了一种无监督词嵌入的评价方法，词频和评价方法中的相似性有重要作用，统一的评价标准能确切反应出模型的优势。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,11 +534,187 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="37.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20200528</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20200528</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20200529</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20200529</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20200529</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,6 +787,9 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
       <c r="B5" s="1">
         <v>20130907</v>
       </c>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBE199F-73EC-4909-B128-A53515B2F5AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC302F16-896F-419B-9370-838351B71136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="6045" windowWidth="12615" windowHeight="9555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -207,6 +207,34 @@
   </si>
   <si>
     <t>论文介绍了一种无监督词嵌入的评价方法，词频和评价方法中的相似性有重要作用，统一的评价标准能确切反应出模型的优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Latent Variable Model Approach to PMI-based Word Embeddings</t>
+  </si>
+  <si>
+    <t>Sanjeev Arora</t>
+  </si>
+  <si>
+    <t>论文提出了一个 generative and 
+dynamic version of the log-linear topic model of Mnih and Hinton，为word2vec, Glove提供了超参数选择，同时解释了低维几何结构的单词推理能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Algebraic Structure of Word Senses, with Applications to Polysemy</t>
+  </si>
+  <si>
+    <t>论文关于多义性，论文方法是基于稀疏编码的线性集合聚类推导方法，类似于主题结构的模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>On the Dimensionality of Word Embedding</t>
+  </si>
+  <si>
+    <t>Zi Yin</t>
+  </si>
+  <si>
+    <t>论文提出了关于理解词嵌入及其维数的理论，使用了PIP 特性（词嵌入度量度量的特性）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -703,9 +731,46 @@
         <v>45</v>
       </c>
     </row>
+    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC302F16-896F-419B-9370-838351B71136}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928C464-B36D-4AC7-997B-508206167BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9105" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,10 +125,6 @@
   </si>
   <si>
     <t>1. skip-gram model 2.hierarchical softmax  3. negative samoling 4. learning phrase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>词表示方法： 分两种，传统表示方法，基于统计的方法，分布式表示： word2vec(skip-gram, CBOW), GloVe</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -235,6 +232,82 @@
   </si>
   <si>
     <t>论文提出了关于理解词嵌入及其维数的理论，使用了PIP 特性（词嵌入度量度量的特性）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incrementality in Deterministic Dependency Parsing</t>
+  </si>
+  <si>
+    <t>Joakim Nivre</t>
+  </si>
+  <si>
+    <t>1. Deterministic dependency parsing is a robust and efficient approach to syntactic parsing of unrestricted natural language text.  2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Dependency parsing  2.Arc-Eager Dependency Parsing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主要内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文介绍了在决定从属解析分析中的增量，研究应该要注重于有格式的输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In this paper, we have analyzed the potential for incremental processing in deterministic parsing. dependency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A Fast and Accurate Dependency Parser using Neural Networks</t>
+  </si>
+  <si>
+    <t>Danqi Chen</t>
+  </si>
+  <si>
+    <t>1.propose a novel way of learning a neural network classifier for use in a greedy, transition-based dependency parser. 2.the score of the model is 92.2% parsing more than 1000 words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. showing the usefulness of dense representations that are learned within the parsing task 2. developing a
+neural network architecture that gives good accuracy and speed, 3.introducing a novel activation function for the neural network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Experimental evaluations parser outperforms other greedy parsers using sparse indicator features in both accuracy and speed. 2.An interesting line of future work is to combine our neural network based classifier with searchbased models to further improve accuracy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待精度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出了使用神经网络对句子进行快速且准确的从属关系解析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Globally Normalized Transition-Based Neural Networks</t>
+  </si>
+  <si>
+    <t>Daniel Andor</t>
+  </si>
+  <si>
+    <t>1. We introduce a globally normalized transition-based neural network model that achieves state-of-the-art part-ofspeech tagging, dependency parsing and sentence compression results  2. a simple feed-forward neural network that operates on a task-specific transition system, 3. globally normalized models can be strictly more expressive than locally normalized models.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1..model is an incremental transitionbased
+parser  2. experiments</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. model combines the flexibility of transition-based algorithms and the modeling power of neural networks. 2.global normalization helps the model overcome the label bias problem from which locally normalized models suffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文介绍了一个全局归一化转换的简单前向神经网络，在语音标注，依赖分析，句子理解方面比RCC 要好；同时全局归一化可以克服标注偏差的问题</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -563,10 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -576,195 +650,271 @@
     <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="35.375" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>20200528</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>2</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="57" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>20200528</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>20200528</v>
+        <v>20200529</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>20200529</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>20200529</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>20200529</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="71.25" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -775,11 +925,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14907C-2EB6-4FA0-A488-5FB0BCDDADC5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="A1:XFD1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1928C464-B36D-4AC7-997B-508206167BED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E553AAE1-1C82-40B0-9009-D416E5689E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="2865" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4005" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="LM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -308,6 +307,16 @@
   </si>
   <si>
     <t>论文介绍了一个全局归一化转换的简单前向神经网络，在语音标注，依赖分析，句子理解方面比RCC 要好；同时全局归一化可以克服标注偏差的问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEU: a Method for Automatic Evaluation of Machine Translation</t>
+  </si>
+  <si>
+    <t>Kishore Papineni,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. the reasom why proposing MT evaluation 2. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -725,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -925,26 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F14907C-2EB6-4FA0-A488-5FB0BCDDADC5}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1039,6 +1033,17 @@
         <v>20</v>
       </c>
     </row>
+    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E553AAE1-1C82-40B0-9009-D416E5689E80}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A973C6-99D2-41C4-A573-4408D68358DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="2490" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -647,9 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19A973C6-99D2-41C4-A573-4408D68358DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B5E11B-E0D0-48FE-B39D-0A4D99242AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,18 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Future</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.computer vision  2. natural language understanding: RNNs to understand sentences or whole documents 3.major progress in artificial intelligence will come about through systems that combine representation learning with complex reasoning.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20150528 NATURE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Date/Where</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -85,10 +77,6 @@
   </si>
   <si>
     <t>Jacob Devlin Ming-Wei Chang Kenton Lee Kristina Toutanova,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20190524  google ai</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -316,7 +304,121 @@
     <t>Kishore Papineni,</t>
   </si>
   <si>
-    <t xml:space="preserve">1. the reasom why proposing MT evaluation 2. </t>
+    <t>1. the reasom why proposing MT evaluation 2. the advantage of BLEU,   evluation method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>idea:The closer a machine translation is to a professional human translation, the better it is. 1. use n-gram precision similarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLEU will accelerate the MT R&amp;D. BLEU’s strength is that it correlates highly with human judgments, quantity leads to quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出了一种评价MT（机器翻译）的方法-BLEU，与人工翻译相关，快速，运行成本低，对MT领域的研究和发展有重要的贡献</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence to Sequence Learning with Neural Networks</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ilya Sutskever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reason: Before this paper, DNN cannot be used to handle seq2seq. 2.present DNN net work for MT using LSTM as encoder and decoder. 3. The score of BLEU is better than other model </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. LSTM read the input sequence, one timestep at a time, use another LSTM to extract the output sequence from the vector</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. a large deep LSTM outperforms than other model and does well in seq2seq problem. The model may also do well in other seq2seq problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出了一种的deep large LSTM模型，对解决seq2seq问题有很好的效果，不止是文中的机器翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence Transduction with Recurrent Neural Networks</t>
+  </si>
+  <si>
+    <t>Alex Graves</t>
+  </si>
+  <si>
+    <t>1.seq2seq's challenges are learning to represent the input and output 2.RNN is powerful but need alignment between input and output 3. introduces an end-to-end sequence transduction system</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNN tansducer and architeture, math, algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>this paper are drawn from an ongoing experiment in end-to-end speech recognition., do something in text-to-speech field</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出了一种RNN的序列转换方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NEURAL MACHINE TRANSLATION BY JOINTLY LEARNING TO ALIGN AND TRANSLATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dzmitry Bahdanau</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>encoder-decoder model of NMT has a bottlenect in improving the performance, propose a model  with soft search. Results in English-to-French translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. compress all the necessary inofrmation of a source sentence into a fixed-length vector, which may has a bottleneck. This method encode the subset of the input sentence sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>proposed a novel architecture, which can encode the important part. Future to handle unknow or rare words</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> alignments means attention 论文提出了注意力机制，提高了NMT的性能，更好的处理seq2seq问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Massive Exploration of Neural Machine Translation Architectures</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Denny Britz</t>
+  </si>
+  <si>
+    <t>One major drawback of current architectures is that they are expensive to train, typically requiring days to weeks of GPU time to converge. Experiments lead to novel insights and practical advice for building and extending NMT architectures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data graph math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. LSTM Cells consistently outperformed GRU Cells. 2.Bidirectional encoders with 2 to 4 layers performed
+best 3.Deep 4-layer decoders slightly outperformed
+shallower decoders</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文对现有的NNT进行了实验和数据分析，提供各种参数实验结果和参数选取方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -647,9 +749,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,7 +772,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -685,10 +787,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -699,19 +801,19 @@
         <v>20200528</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -722,16 +824,16 @@
         <v>20200528</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
@@ -742,22 +844,22 @@
         <v>20200529</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
@@ -768,48 +870,45 @@
         <v>20200529</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>20200529</v>
-      </c>
       <c r="C6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -817,13 +916,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -831,50 +930,56 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
+      <c r="B9" s="1">
+        <v>20200602</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
+      <c r="B11" s="1">
+        <v>20200604</v>
+      </c>
       <c r="C11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -882,48 +987,51 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
+      <c r="B13" s="1">
+        <v>20200604</v>
+      </c>
       <c r="C13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -935,30 +1043,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="H5" activeCellId="1" sqref="I12 H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="57.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="37.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="45.125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -973,16 +1082,16 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
@@ -993,55 +1102,165 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="71.25" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1">
-        <v>20130907</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>20200607</v>
+      </c>
       <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B5E11B-E0D0-48FE-B39D-0A4D99242AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C09CA-7E2D-4E15-B118-07BF83440C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>word vector can be used in syntactic, semantic language tasks and knowledge bases,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Distributed Representations ofWords and Phrases and their Compositionality</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -419,6 +415,21 @@
   </si>
   <si>
     <t>精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yoshua Bengio</t>
+  </si>
+  <si>
+    <t>A Neural Probabilistic Language Model(2003)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Distributed Representations ofWords and Phrases and their Compositionality(2013)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需精读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,11 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -772,7 +783,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -787,10 +798,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -824,16 +835,19 @@
         <v>20200528</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
+      <c r="I3" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
@@ -844,22 +858,22 @@
         <v>20200529</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="H4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
@@ -870,22 +884,22 @@
         <v>20200529</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
@@ -893,22 +907,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -916,13 +930,13 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -930,13 +944,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -947,13 +961,13 @@
         <v>20200602</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -964,22 +978,22 @@
         <v>20200604</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
@@ -987,25 +1001,25 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="85.5" x14ac:dyDescent="0.2">
@@ -1016,22 +1030,30 @@
         <v>20200604</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>69</v>
+    </row>
+    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="H5" activeCellId="1" sqref="I12 H5"/>
     </sheetView>
   </sheetViews>
@@ -1082,10 +1104,10 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="101.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,22 +1166,22 @@
         <v>20200607</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1167,25 +1189,25 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
@@ -1193,22 +1215,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -1216,25 +1238,25 @@
         <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="57" x14ac:dyDescent="0.2">
@@ -1242,25 +1264,25 @@
         <v>5</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655C09CA-7E2D-4E15-B118-07BF83440C0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052DF2E1-4EA2-438E-96D7-56D6877C818E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,6 +430,26 @@
   </si>
   <si>
     <t>需精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1) a distributed representation for each word along with  (2) the probability function for word sequences, expressed in terms of these representations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.NNLM architecture 2.n-gram comparation 3.parallel implementation  4.results and future work</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. improvements because of take advantage of the learned distributed representation to fight the curse of dimensionality with </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已精读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出了一种神经网络语言模型 NNLM，既能表示word vectors，又能计算sequence probabilities，为后续的seq2seq有启示作用。并行计算，存储，模型等方面可以改善</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,8 +781,8 @@
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,12 +1068,27 @@
         <v>68</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>101</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052DF2E1-4EA2-438E-96D7-56D6877C818E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2402F91-39A0-4773-836E-1F30144CE8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,30 @@
   </si>
   <si>
     <t>论文提出了一种神经网络语言模型 NNLM，既能表示word vectors，又能计算sequence probabilities，为后续的seq2seq有启示作用。并行计算，存储，模型等方面可以改善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bag of Tricks for Efficient Text Classification</t>
+  </si>
+  <si>
+    <t>Armand Joulin</t>
+  </si>
+  <si>
+    <t>1. This paper explores a simple and efficient baseline for text classification 2. fasttext classifier is like deep learning classifiers in terms of accuracy and oterh fields. 3. It trains fast and classify fast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. introduct about classification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Convolutional Neural Networks for Sentence Classification</t>
+  </si>
+  <si>
+    <t>Yoon Kim</t>
+  </si>
+  <si>
+    <t>论文提出了CNN对NLP处理的方向，输入需要经过WORD2VEC的向量化，然后一层CNN可以达到很好的效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -778,11 +802,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1091,6 +1115,20 @@
         <v>108</v>
       </c>
     </row>
+    <row r="16" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1100,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="H5" activeCellId="1" sqref="I12 H5"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1320,6 +1358,17 @@
         <v>100</v>
       </c>
     </row>
+    <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2402F91-39A0-4773-836E-1F30144CE8F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C5112-17E7-4F3E-B0F0-57720BBFBC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="1875" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3585" yWindow="2820" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
     <sheet name="LM" sheetId="1" r:id="rId2"/>
+    <sheet name="seq2seq" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -474,6 +475,48 @@
   </si>
   <si>
     <t>论文提出了CNN对NLP处理的方向，输入需要经过WORD2VEC的向量化，然后一层CNN可以达到很好的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning Phrase Representations using RNN Encoder–Decoder for Statistical Machine Translation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kyunghyun Cho</t>
+  </si>
+  <si>
+    <t>疑问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.各种分词工具 效率对比，评价标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>it will be an important future research to apply the， proposed architecture to other applications such as speech transcription.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3.Qualitatively, we show that the proposed model learns a semantically and
+syntactically meaningful representation of linguistic phrases</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.propose a novel neural network model called RNN Encoder– Decoder that consists of two recurrent neural networks (RNN).  2. One RNN encodes a sequence of symbols into a fixed lengthvector representation, and the other decodes the representation into another sequence of symbols.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dzmitry Bahdanau</t>
+  </si>
+  <si>
+    <t>the use of a fixed-length vector is a bottleneck in improving the performance of this basic encoder–decoder architecture, and propose to extend this by allowing a model to automatically (soft-)search for parts of a source sentence that are relevant to predicting a target word, without having to form these parts as a hard segment explicitly.</t>
+  </si>
+  <si>
+    <t>1.输入为什么固定长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.NMT 2. deal with long sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,9 +560,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,9 +850,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1140,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+    <sheetView topLeftCell="F7" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -1374,4 +1420,99 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C109415A-785A-401E-B538-CB495FEFBC1B}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="48.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="53.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="39.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="44.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="50.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C5112-17E7-4F3E-B0F0-57720BBFBC50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA5C945-A210-4A06-91FF-8D04A02B46E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="2820" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -518,6 +518,25 @@
   <si>
     <t>1.NMT 2. deal with long sequence</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 June</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020 July</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The CNN models discussed herein improve upon the state of the art on 4 out of 7 tasks, which include sentiment analysis and question classification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. a simple CNN with one layer of convolution on  the top of word vecotrs obtained from an unsupervised NLM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our results add to the well-established evidence that unsupervised pre-training of word vectors is an important ingredient in deep learning for NLP.</t>
   </si>
 </sst>
 </file>
@@ -1186,8 +1205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1281,8 +1301,8 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="1">
-        <v>20200607</v>
+      <c r="B7" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>69</v>
@@ -1307,6 +1327,9 @@
       <c r="A8" s="1">
         <v>2</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>75</v>
       </c>
@@ -1333,6 +1356,9 @@
       <c r="A9" s="1">
         <v>3</v>
       </c>
+      <c r="B9" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>82</v>
       </c>
@@ -1356,6 +1382,9 @@
       <c r="A10" s="1">
         <v>4</v>
       </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>88</v>
       </c>
@@ -1382,6 +1411,9 @@
       <c r="A11" s="1">
         <v>5</v>
       </c>
+      <c r="B11" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>94</v>
       </c>
@@ -1405,11 +1437,26 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>115</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>116</v>
@@ -1426,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C109415A-785A-401E-B538-CB495FEFBC1B}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA5C945-A210-4A06-91FF-8D04A02B46E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A2B17-EAA3-4DA9-9FE9-5255CD7F09EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
     <sheet name="LM" sheetId="1" r:id="rId2"/>
     <sheet name="seq2seq" sheetId="3" r:id="rId3"/>
+    <sheet name="CV" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="134">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,6 +538,9 @@
   </si>
   <si>
     <t>Our results add to the well-established evidence that unsupervised pre-training of word vectors is an important ingredient in deep learning for NLP.</t>
+  </si>
+  <si>
+    <t>ImageNet Classification with Deep Convolutional Neural Networks</t>
   </si>
 </sst>
 </file>
@@ -869,7 +873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
@@ -1205,9 +1209,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1562,4 +1566,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9577A6A-62D8-4125-A155-853D5B40F763}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="8.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="47.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="45.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="43.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/paper/paper.xlsx
+++ b/paper/paper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\machine learning\paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2A2B17-EAA3-4DA9-9FE9-5255CD7F09EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DBA216-5A50-4638-8FF5-AEC17DD9ADDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5460" yWindow="4035" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="word2vec" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
   <si>
     <t>Tittle</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,32 @@
   </si>
   <si>
     <t>ImageNet Classification with Deep Convolutional Neural Networks</t>
+  </si>
+  <si>
+    <t>Learning the k in k-means</t>
+  </si>
+  <si>
+    <t>Greg Hamerly, Charles Elkan</t>
+  </si>
+  <si>
+    <t>In this paper we present an improved algorithm for learning k while clustering  2. G-means for datasets that follows a gaussian distribution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>论文提出了关于Kmeans 算法如何去选择k的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>have introduced the new G-means algorithm for learning k based on a statistical test for determining whether datapoints are a random sample from a Gaussian distribution with arbitrary dimension and covariance matrix</t>
+  </si>
+  <si>
+    <t>Bilateral Filtering for Gray and Color Images</t>
+  </si>
+  <si>
+    <t>C. Tomasi</t>
+  </si>
+  <si>
+    <t>Bilateral filtering smooths images while preserving edges, by means of a nonlinear combination of nearby image values</t>
   </si>
 </sst>
 </file>
@@ -873,7 +899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AB0BF7B-90A0-40ED-A5F2-27CC2A014513}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D1" sqref="A1:XFD1"/>
     </sheetView>
@@ -1570,10 +1596,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9577A6A-62D8-4125-A155-853D5B40F763}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1589,7 +1615,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1615,9 +1641,46 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
